--- a/Electricidad/mex/temas por año.xlsx
+++ b/Electricidad/mex/temas por año.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10913"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karenvasquez/Desktop/OCTAVOSEMESTRE/CAMILO GONZALEZ/ProyectoReg/Electricidad/mex/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45CE3001-8D9D-A54E-B56B-35548C3AA57E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -43,8 +49,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,11 +113,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -153,7 +167,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -185,9 +199,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -219,6 +251,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -394,14 +444,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -427,7 +479,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>2000</v>
       </c>
@@ -453,7 +505,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2001</v>
       </c>
@@ -479,7 +531,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2002</v>
       </c>
@@ -505,7 +557,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>2003</v>
       </c>
@@ -531,7 +583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>2004</v>
       </c>
@@ -557,7 +609,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>2005</v>
       </c>
@@ -583,7 +635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>2006</v>
       </c>
@@ -609,7 +661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>2007</v>
       </c>
@@ -635,7 +687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>2008</v>
       </c>
@@ -661,7 +713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>2009</v>
       </c>
@@ -687,7 +739,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>2010</v>
       </c>
@@ -713,7 +765,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>2011</v>
       </c>
@@ -739,7 +791,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>2012</v>
       </c>
@@ -765,7 +817,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>2013</v>
       </c>
@@ -791,7 +843,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>2014</v>
       </c>
@@ -817,7 +869,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>2015</v>
       </c>
@@ -843,7 +895,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>2016</v>
       </c>
@@ -869,7 +921,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>2017</v>
       </c>
@@ -895,7 +947,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>2018</v>
       </c>
@@ -921,7 +973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>2019</v>
       </c>
@@ -947,7 +999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>2020</v>
       </c>
@@ -971,6 +1023,11 @@
       </c>
       <c r="H22">
         <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B23">
+        <v>240100</v>
       </c>
     </row>
   </sheetData>
